--- a/ApplyFormulasToGroupOfFiles_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_v0.1/workspace/result.xlsx
@@ -19,75 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
-    <t>Engine Speed</t>
+    <t>Val_A</t>
   </si>
   <si>
-    <t>Engine Torque</t>
+    <t>Val_B</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Val_C</t>
   </si>
   <si>
-    <t>ALPHA [%]</t>
+    <t>Val_D</t>
   </si>
   <si>
-    <t>Bsfc</t>
+    <t>Val_E</t>
   </si>
   <si>
-    <t>Fuel_kg_h</t>
+    <t>Val_F</t>
   </si>
   <si>
-    <t>Fuel_mg_st</t>
+    <t>Val_G</t>
   </si>
   <si>
-    <t>Airmass_kg_h</t>
+    <t>Val_H</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulaToGroupOfFiles_v0.1\workspace\test_file.csv</t>
-  </si>
-  <si>
-    <t>Formula 0</t>
+    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\test_file.csv</t>
   </si>
   <si>
     <t>Formula 1</t>
   </si>
   <si>
-    <t>Formula 2</t>
+    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_1\test_file.csv</t>
   </si>
   <si>
-    <t>Formula 3</t>
+    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_2\test_file.csv</t>
   </si>
   <si>
-    <t>Formula 4</t>
+    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_3\test_file.csv</t>
   </si>
   <si>
-    <t>Formula 5</t>
-  </si>
-  <si>
-    <t>Formula 6</t>
-  </si>
-  <si>
-    <t>Formula 7</t>
-  </si>
-  <si>
-    <t>Formula 8</t>
-  </si>
-  <si>
-    <t>Formula 9</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulaToGroupOfFiles_v0.1\workspace\folder_1\test_file.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulaToGroupOfFiles_v0.1\workspace\folder_2\test_file.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulaToGroupOfFiles_v0.1\workspace\folder_3\test_file.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulaToGroupOfFiles_v0.1\workspace\folder_4\test_file.csv</t>
+    <t>C:\Users\HP\Documents\GitHub\Excel_automation_tools\ApplyFormulasToGroupOfFiles_v0.1\workspace\folder_4\test_file.csv</t>
   </si>
 </sst>
 </file>
@@ -419,45 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -465,220 +411,40 @@
         <f>file_0!ZZ1</f>
         <v>0</v>
       </c>
-      <c r="C2">
-        <f>file_0!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>file_0!ZZ3</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>file_0!ZZ4</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>file_0!ZZ5</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>file_0!ZZ6</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>file_0!ZZ7</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>file_0!ZZ8</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>file_0!ZZ9</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>file_0!ZZ10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>file_1!ZZ1</f>
         <v>0</v>
       </c>
-      <c r="C3">
-        <f>file_1!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>file_1!ZZ3</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>file_1!ZZ4</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>file_1!ZZ5</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>file_1!ZZ6</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>file_1!ZZ7</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>file_1!ZZ8</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>file_1!ZZ9</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>file_1!ZZ10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>file_2!ZZ1</f>
         <v>0</v>
       </c>
-      <c r="C4">
-        <f>file_2!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>file_2!ZZ3</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>file_2!ZZ4</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>file_2!ZZ5</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>file_2!ZZ6</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>file_2!ZZ7</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>file_2!ZZ8</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>file_2!ZZ9</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>file_2!ZZ10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <f>file_3!ZZ1</f>
         <v>0</v>
       </c>
-      <c r="C5">
-        <f>file_3!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>file_3!ZZ3</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>file_3!ZZ4</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>file_3!ZZ5</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>file_3!ZZ6</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>file_3!ZZ7</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>file_3!ZZ8</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>file_3!ZZ9</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>file_3!ZZ10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>file_4!ZZ1</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>file_4!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>file_4!ZZ3</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>file_4!ZZ4</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>file_4!ZZ5</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>file_4!ZZ6</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>file_4!ZZ7</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>file_4!ZZ8</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>file_4!ZZ9</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>file_4!ZZ10</f>
         <v>0</v>
       </c>
     </row>
@@ -721,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
+        <f>sum(C5:C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -750,10 +516,6 @@
       <c r="H2">
         <v>4.22</v>
       </c>
-      <c r="ZZ2">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -780,10 +542,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -810,10 +568,6 @@
       <c r="H4">
         <v>3.75</v>
       </c>
-      <c r="ZZ4">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:702">
       <c r="A5">
@@ -840,10 +594,6 @@
       <c r="H5">
         <v>3.36</v>
       </c>
-      <c r="ZZ5">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:702">
       <c r="A6">
@@ -870,10 +620,6 @@
       <c r="H6">
         <v>2.97</v>
       </c>
-      <c r="ZZ6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:702">
       <c r="A7">
@@ -900,10 +646,6 @@
       <c r="H7">
         <v>2.57</v>
       </c>
-      <c r="ZZ7">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:702">
       <c r="A8">
@@ -930,10 +672,6 @@
       <c r="H8">
         <v>2.19</v>
       </c>
-      <c r="ZZ8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:702">
       <c r="A9">
@@ -960,10 +698,6 @@
       <c r="H9">
         <v>1.82</v>
       </c>
-      <c r="ZZ9">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:702">
       <c r="A10">
@@ -989,10 +723,6 @@
       </c>
       <c r="H10">
         <v>1.48</v>
-      </c>
-      <c r="ZZ10">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:702">
@@ -4206,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
+        <f>sum(C5:C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4235,10 +3965,6 @@
       <c r="H2">
         <v>4.22</v>
       </c>
-      <c r="ZZ2">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -4265,10 +3991,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -4295,10 +4017,6 @@
       <c r="H4">
         <v>3.75</v>
       </c>
-      <c r="ZZ4">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:702">
       <c r="A5">
@@ -4325,10 +4043,6 @@
       <c r="H5">
         <v>3.36</v>
       </c>
-      <c r="ZZ5">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:702">
       <c r="A6">
@@ -4355,10 +4069,6 @@
       <c r="H6">
         <v>2.97</v>
       </c>
-      <c r="ZZ6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:702">
       <c r="A7">
@@ -4385,10 +4095,6 @@
       <c r="H7">
         <v>2.57</v>
       </c>
-      <c r="ZZ7">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:702">
       <c r="A8">
@@ -4415,10 +4121,6 @@
       <c r="H8">
         <v>2.19</v>
       </c>
-      <c r="ZZ8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:702">
       <c r="A9">
@@ -4428,7 +4130,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>12313</v>
+        <v>3.77</v>
       </c>
       <c r="D9">
         <v>31.8</v>
@@ -4444,10 +4146,6 @@
       </c>
       <c r="H9">
         <v>1.82</v>
-      </c>
-      <c r="ZZ9">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:702">
@@ -4474,10 +4172,6 @@
       </c>
       <c r="H10">
         <v>1.48</v>
-      </c>
-      <c r="ZZ10">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:702">
@@ -7691,7 +7385,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
+        <f>sum(C5:C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -7720,10 +7414,6 @@
       <c r="H2">
         <v>4.22</v>
       </c>
-      <c r="ZZ2">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -7750,10 +7440,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -7780,10 +7466,6 @@
       <c r="H4">
         <v>3.75</v>
       </c>
-      <c r="ZZ4">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:702">
       <c r="A5">
@@ -7810,10 +7492,6 @@
       <c r="H5">
         <v>3.36</v>
       </c>
-      <c r="ZZ5">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:702">
       <c r="A6">
@@ -7840,10 +7518,6 @@
       <c r="H6">
         <v>2.97</v>
       </c>
-      <c r="ZZ6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:702">
       <c r="A7">
@@ -7870,10 +7544,6 @@
       <c r="H7">
         <v>2.57</v>
       </c>
-      <c r="ZZ7">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:702">
       <c r="A8">
@@ -7900,10 +7570,6 @@
       <c r="H8">
         <v>2.19</v>
       </c>
-      <c r="ZZ8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:702">
       <c r="A9">
@@ -7913,7 +7579,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>12313</v>
+        <v>3.77</v>
       </c>
       <c r="D9">
         <v>31.8</v>
@@ -7929,10 +7595,6 @@
       </c>
       <c r="H9">
         <v>1.82</v>
-      </c>
-      <c r="ZZ9">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:702">
@@ -7959,10 +7621,6 @@
       </c>
       <c r="H10">
         <v>1.48</v>
-      </c>
-      <c r="ZZ10">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:702">
@@ -11176,7 +10834,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
+        <f>sum(C5:C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -11205,10 +10863,6 @@
       <c r="H2">
         <v>4.22</v>
       </c>
-      <c r="ZZ2">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -11235,10 +10889,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -11265,10 +10915,6 @@
       <c r="H4">
         <v>3.75</v>
       </c>
-      <c r="ZZ4">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:702">
       <c r="A5">
@@ -11295,10 +10941,6 @@
       <c r="H5">
         <v>3.36</v>
       </c>
-      <c r="ZZ5">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:702">
       <c r="A6">
@@ -11325,10 +10967,6 @@
       <c r="H6">
         <v>2.97</v>
       </c>
-      <c r="ZZ6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:702">
       <c r="A7">
@@ -11355,10 +10993,6 @@
       <c r="H7">
         <v>2.57</v>
       </c>
-      <c r="ZZ7">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:702">
       <c r="A8">
@@ -11385,10 +11019,6 @@
       <c r="H8">
         <v>2.19</v>
       </c>
-      <c r="ZZ8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:702">
       <c r="A9">
@@ -11398,7 +11028,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>12313</v>
+        <v>3.77</v>
       </c>
       <c r="D9">
         <v>31.8</v>
@@ -11414,10 +11044,6 @@
       </c>
       <c r="H9">
         <v>1.82</v>
-      </c>
-      <c r="ZZ9">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:702">
@@ -11444,10 +11070,6 @@
       </c>
       <c r="H10">
         <v>1.48</v>
-      </c>
-      <c r="ZZ10">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:702">
@@ -14661,7 +14283,7 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
+        <f>sum(C5:C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -14690,10 +14312,6 @@
       <c r="H2">
         <v>4.22</v>
       </c>
-      <c r="ZZ2">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:702">
       <c r="A3">
@@ -14720,10 +14338,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -14750,10 +14364,6 @@
       <c r="H4">
         <v>3.75</v>
       </c>
-      <c r="ZZ4">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:702">
       <c r="A5">
@@ -14780,10 +14390,6 @@
       <c r="H5">
         <v>3.36</v>
       </c>
-      <c r="ZZ5">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:702">
       <c r="A6">
@@ -14810,10 +14416,6 @@
       <c r="H6">
         <v>2.97</v>
       </c>
-      <c r="ZZ6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:702">
       <c r="A7">
@@ -14840,10 +14442,6 @@
       <c r="H7">
         <v>2.57</v>
       </c>
-      <c r="ZZ7">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:702">
       <c r="A8">
@@ -14870,10 +14468,6 @@
       <c r="H8">
         <v>2.19</v>
       </c>
-      <c r="ZZ8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:702">
       <c r="A9">
@@ -14883,7 +14477,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>12313</v>
+        <v>3.77</v>
       </c>
       <c r="D9">
         <v>31.8</v>
@@ -14899,10 +14493,6 @@
       </c>
       <c r="H9">
         <v>1.82</v>
-      </c>
-      <c r="ZZ9">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:702">
@@ -14929,10 +14519,6 @@
       </c>
       <c r="H10">
         <v>1.48</v>
-      </c>
-      <c r="ZZ10">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:702">
